--- a/config/PropertyConfig.xlsx
+++ b/config/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="10305"/>
+    <workbookView windowWidth="19785" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>ID</t>
   </si>
@@ -33,10 +33,10 @@
     <t>品牌icon</t>
   </si>
   <si>
-    <t>资产列表缩放比</t>
+    <t>资产列表缩放比（装扮类框中）</t>
   </si>
   <si>
-    <t>坐标x,y，偏移量</t>
+    <t>坐标x,y，偏移量（装扮类框中）</t>
   </si>
   <si>
     <t>品牌排序序号</t>
@@ -93,9 +93,6 @@
     <t>浣花小筑</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>pic_house_0001_png</t>
   </si>
   <si>
@@ -120,10 +117,25 @@
     <t>icon_h_realestate_png</t>
   </si>
   <si>
-    <t>2,6</t>
+    <t>2,15</t>
   </si>
   <si>
     <t>450,220</t>
+  </si>
+  <si>
+    <t>7003</t>
+  </si>
+  <si>
+    <t>现代缘墅</t>
+  </si>
+  <si>
+    <t>pic_house_0003_png</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>500,200</t>
   </si>
   <si>
     <t>One ：1</t>
@@ -136,9 +148,6 @@
   </si>
   <si>
     <t>0,10</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>480,220</t>
@@ -154,6 +163,18 @@
   </si>
   <si>
     <t>500,220</t>
+  </si>
+  <si>
+    <t>甲壳虫</t>
+  </si>
+  <si>
+    <t>pic_car_0003_png</t>
+  </si>
+  <si>
+    <t>icon_c_dazhong_png</t>
+  </si>
+  <si>
+    <t>450,180</t>
   </si>
   <si>
     <t>Ferretti 800</t>
@@ -180,10 +201,19 @@
     <t>icon_s_heysea_png</t>
   </si>
   <si>
-    <t>2,10</t>
+    <t>500,185</t>
   </si>
   <si>
-    <t>500,185</t>
+    <t>Key Largo One</t>
+  </si>
+  <si>
+    <t>pic_ship_0003_png</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>520,320</t>
   </si>
 </sst>
 </file>
@@ -218,8 +248,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,29 +335,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,31 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,41 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +400,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +490,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,133 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,18 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,16 +628,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,26 +679,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IW64"/>
+  <dimension ref="A1:IW58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -2027,26 +2057,26 @@
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0.62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2299,31 +2329,31 @@
     </row>
     <row r="5" spans="1:257">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0.7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2575,32 +2605,32 @@
       <c r="IW5" s="3"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="A6" s="1">
-        <v>7501</v>
+      <c r="A6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
+      <c r="H6" s="1">
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2853,31 +2883,31 @@
     </row>
     <row r="7" spans="1:257">
       <c r="A7" s="1">
-        <v>7502</v>
+        <v>7501</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+      <c r="H7" s="1">
+        <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3130,31 +3160,31 @@
     </row>
     <row r="8" spans="1:257">
       <c r="A8" s="1">
-        <v>7503</v>
+        <v>7502</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>0.55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3407,31 +3437,31 @@
     </row>
     <row r="9" spans="1:257">
       <c r="A9" s="1">
-        <v>7504</v>
+        <v>7503</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
+      <c r="H9" s="1">
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3684,31 +3714,31 @@
     </row>
     <row r="10" spans="1:257">
       <c r="A10" s="1">
-        <v>7505</v>
+        <v>8001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>0.55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
+      <c r="H10" s="1">
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3961,31 +3991,31 @@
     </row>
     <row r="11" spans="1:257">
       <c r="A11" s="1">
-        <v>7506</v>
+        <v>8002</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+      <c r="H11" s="1">
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4238,31 +4268,31 @@
     </row>
     <row r="12" spans="1:257">
       <c r="A12" s="1">
-        <v>7507</v>
+        <v>8003</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4514,33 +4544,12 @@
       <c r="IW12" s="3"/>
     </row>
     <row r="13" spans="1:257">
-      <c r="A13" s="1">
-        <v>7508</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -4791,33 +4800,12 @@
       <c r="IW13" s="3"/>
     </row>
     <row r="14" spans="1:257">
-      <c r="A14" s="1">
-        <v>7509</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -5068,33 +5056,12 @@
       <c r="IW14" s="3"/>
     </row>
     <row r="15" spans="1:257">
-      <c r="A15" s="1">
-        <v>7510</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -5345,33 +5312,12 @@
       <c r="IW15" s="3"/>
     </row>
     <row r="16" spans="1:257">
-      <c r="A16" s="1">
-        <v>8001</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -5622,33 +5568,12 @@
       <c r="IW16" s="3"/>
     </row>
     <row r="17" spans="1:257">
-      <c r="A17" s="1">
-        <v>8002</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -10762,11 +10687,7 @@
       <c r="IV36" s="3"/>
       <c r="IW36" s="3"/>
     </row>
-    <row r="37" spans="1:257">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="5:257">
       <c r="E37" s="2"/>
       <c r="G37" s="2"/>
       <c r="J37" s="3"/>
@@ -11018,11 +10939,7 @@
       <c r="IV37" s="3"/>
       <c r="IW37" s="3"/>
     </row>
-    <row r="38" spans="1:257">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="5:257">
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
       <c r="J38" s="3"/>
@@ -11274,12 +11191,7 @@
       <c r="IV38" s="3"/>
       <c r="IW38" s="3"/>
     </row>
-    <row r="39" spans="1:257">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+    <row r="39" spans="7:257">
       <c r="G39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -11530,12 +11442,7 @@
       <c r="IV39" s="3"/>
       <c r="IW39" s="3"/>
     </row>
-    <row r="40" spans="1:257">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+    <row r="40" spans="7:257">
       <c r="G40" s="2"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -11786,12 +11693,7 @@
       <c r="IV40" s="3"/>
       <c r="IW40" s="3"/>
     </row>
-    <row r="41" spans="1:257">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+    <row r="41" spans="7:257">
       <c r="G41" s="2"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -12042,12 +11944,7 @@
       <c r="IV41" s="3"/>
       <c r="IW41" s="3"/>
     </row>
-    <row r="42" spans="1:257">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+    <row r="42" spans="7:257">
       <c r="G42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -12298,8 +12195,7 @@
       <c r="IV42" s="3"/>
       <c r="IW42" s="3"/>
     </row>
-    <row r="43" spans="5:257">
-      <c r="E43" s="2"/>
+    <row r="43" spans="7:257">
       <c r="G43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -12550,8 +12446,7 @@
       <c r="IV43" s="3"/>
       <c r="IW43" s="3"/>
     </row>
-    <row r="44" spans="5:257">
-      <c r="E44" s="2"/>
+    <row r="44" spans="7:257">
       <c r="G44" s="2"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -13806,8 +13701,7 @@
       <c r="IV48" s="3"/>
       <c r="IW48" s="3"/>
     </row>
-    <row r="49" spans="7:257">
-      <c r="G49" s="2"/>
+    <row r="49" spans="10:257">
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -14057,8 +13951,7 @@
       <c r="IV49" s="3"/>
       <c r="IW49" s="3"/>
     </row>
-    <row r="50" spans="7:257">
-      <c r="G50" s="2"/>
+    <row r="50" spans="10:257">
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -14308,8 +14201,7 @@
       <c r="IV50" s="3"/>
       <c r="IW50" s="3"/>
     </row>
-    <row r="51" spans="7:257">
-      <c r="G51" s="2"/>
+    <row r="51" spans="10:257">
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -14559,8 +14451,7 @@
       <c r="IV51" s="3"/>
       <c r="IW51" s="3"/>
     </row>
-    <row r="52" spans="7:257">
-      <c r="G52" s="2"/>
+    <row r="52" spans="10:257">
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -14810,8 +14701,7 @@
       <c r="IV52" s="3"/>
       <c r="IW52" s="3"/>
     </row>
-    <row r="53" spans="7:257">
-      <c r="G53" s="2"/>
+    <row r="53" spans="10:257">
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -15061,8 +14951,7 @@
       <c r="IV53" s="3"/>
       <c r="IW53" s="3"/>
     </row>
-    <row r="54" spans="7:257">
-      <c r="G54" s="2"/>
+    <row r="54" spans="10:257">
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -16312,1506 +16201,6 @@
       <c r="IV58" s="3"/>
       <c r="IW58" s="3"/>
     </row>
-    <row r="59" spans="10:257">
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
-      <c r="AW59" s="3"/>
-      <c r="AX59" s="3"/>
-      <c r="AY59" s="3"/>
-      <c r="AZ59" s="3"/>
-      <c r="BA59" s="3"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="3"/>
-      <c r="BD59" s="3"/>
-      <c r="BE59" s="3"/>
-      <c r="BF59" s="3"/>
-      <c r="BG59" s="3"/>
-      <c r="BH59" s="3"/>
-      <c r="BI59" s="3"/>
-      <c r="BJ59" s="3"/>
-      <c r="BK59" s="3"/>
-      <c r="BL59" s="3"/>
-      <c r="BM59" s="3"/>
-      <c r="BN59" s="3"/>
-      <c r="BO59" s="3"/>
-      <c r="BP59" s="3"/>
-      <c r="BQ59" s="3"/>
-      <c r="BR59" s="3"/>
-      <c r="BS59" s="3"/>
-      <c r="BT59" s="3"/>
-      <c r="BU59" s="3"/>
-      <c r="BV59" s="3"/>
-      <c r="BW59" s="3"/>
-      <c r="BX59" s="3"/>
-      <c r="BY59" s="3"/>
-      <c r="BZ59" s="3"/>
-      <c r="CA59" s="3"/>
-      <c r="CB59" s="3"/>
-      <c r="CC59" s="3"/>
-      <c r="CD59" s="3"/>
-      <c r="CE59" s="3"/>
-      <c r="CF59" s="3"/>
-      <c r="CG59" s="3"/>
-      <c r="CH59" s="3"/>
-      <c r="CI59" s="3"/>
-      <c r="CJ59" s="3"/>
-      <c r="CK59" s="3"/>
-      <c r="CL59" s="3"/>
-      <c r="CM59" s="3"/>
-      <c r="CN59" s="3"/>
-      <c r="CO59" s="3"/>
-      <c r="CP59" s="3"/>
-      <c r="CQ59" s="3"/>
-      <c r="CR59" s="3"/>
-      <c r="CS59" s="3"/>
-      <c r="CT59" s="3"/>
-      <c r="CU59" s="3"/>
-      <c r="CV59" s="3"/>
-      <c r="CW59" s="3"/>
-      <c r="CX59" s="3"/>
-      <c r="CY59" s="3"/>
-      <c r="CZ59" s="3"/>
-      <c r="DA59" s="3"/>
-      <c r="DB59" s="3"/>
-      <c r="DC59" s="3"/>
-      <c r="DD59" s="3"/>
-      <c r="DE59" s="3"/>
-      <c r="DF59" s="3"/>
-      <c r="DG59" s="3"/>
-      <c r="DH59" s="3"/>
-      <c r="DI59" s="3"/>
-      <c r="DJ59" s="3"/>
-      <c r="DK59" s="3"/>
-      <c r="DL59" s="3"/>
-      <c r="DM59" s="3"/>
-      <c r="DN59" s="3"/>
-      <c r="DO59" s="3"/>
-      <c r="DP59" s="3"/>
-      <c r="DQ59" s="3"/>
-      <c r="DR59" s="3"/>
-      <c r="DS59" s="3"/>
-      <c r="DT59" s="3"/>
-      <c r="DU59" s="3"/>
-      <c r="DV59" s="3"/>
-      <c r="DW59" s="3"/>
-      <c r="DX59" s="3"/>
-      <c r="DY59" s="3"/>
-      <c r="DZ59" s="3"/>
-      <c r="EA59" s="3"/>
-      <c r="EB59" s="3"/>
-      <c r="EC59" s="3"/>
-      <c r="ED59" s="3"/>
-      <c r="EE59" s="3"/>
-      <c r="EF59" s="3"/>
-      <c r="EG59" s="3"/>
-      <c r="EH59" s="3"/>
-      <c r="EI59" s="3"/>
-      <c r="EJ59" s="3"/>
-      <c r="EK59" s="3"/>
-      <c r="EL59" s="3"/>
-      <c r="EM59" s="3"/>
-      <c r="EN59" s="3"/>
-      <c r="EO59" s="3"/>
-      <c r="EP59" s="3"/>
-      <c r="EQ59" s="3"/>
-      <c r="ER59" s="3"/>
-      <c r="ES59" s="3"/>
-      <c r="ET59" s="3"/>
-      <c r="EU59" s="3"/>
-      <c r="EV59" s="3"/>
-      <c r="EW59" s="3"/>
-      <c r="EX59" s="3"/>
-      <c r="EY59" s="3"/>
-      <c r="EZ59" s="3"/>
-      <c r="FA59" s="3"/>
-      <c r="FB59" s="3"/>
-      <c r="FC59" s="3"/>
-      <c r="FD59" s="3"/>
-      <c r="FE59" s="3"/>
-      <c r="FF59" s="3"/>
-      <c r="FG59" s="3"/>
-      <c r="FH59" s="3"/>
-      <c r="FI59" s="3"/>
-      <c r="FJ59" s="3"/>
-      <c r="FK59" s="3"/>
-      <c r="FL59" s="3"/>
-      <c r="FM59" s="3"/>
-      <c r="FN59" s="3"/>
-      <c r="FO59" s="3"/>
-      <c r="FP59" s="3"/>
-      <c r="FQ59" s="3"/>
-      <c r="FR59" s="3"/>
-      <c r="FS59" s="3"/>
-      <c r="FT59" s="3"/>
-      <c r="FU59" s="3"/>
-      <c r="FV59" s="3"/>
-      <c r="FW59" s="3"/>
-      <c r="FX59" s="3"/>
-      <c r="FY59" s="3"/>
-      <c r="FZ59" s="3"/>
-      <c r="GA59" s="3"/>
-      <c r="GB59" s="3"/>
-      <c r="GC59" s="3"/>
-      <c r="GD59" s="3"/>
-      <c r="GE59" s="3"/>
-      <c r="GF59" s="3"/>
-      <c r="GG59" s="3"/>
-      <c r="GH59" s="3"/>
-      <c r="GI59" s="3"/>
-      <c r="GJ59" s="3"/>
-      <c r="GK59" s="3"/>
-      <c r="GL59" s="3"/>
-      <c r="GM59" s="3"/>
-      <c r="GN59" s="3"/>
-      <c r="GO59" s="3"/>
-      <c r="GP59" s="3"/>
-      <c r="GQ59" s="3"/>
-      <c r="GR59" s="3"/>
-      <c r="GS59" s="3"/>
-      <c r="GT59" s="3"/>
-      <c r="GU59" s="3"/>
-      <c r="GV59" s="3"/>
-      <c r="GW59" s="3"/>
-      <c r="GX59" s="3"/>
-      <c r="GY59" s="3"/>
-      <c r="GZ59" s="3"/>
-      <c r="HA59" s="3"/>
-      <c r="HB59" s="3"/>
-      <c r="HC59" s="3"/>
-      <c r="HD59" s="3"/>
-      <c r="HE59" s="3"/>
-      <c r="HF59" s="3"/>
-      <c r="HG59" s="3"/>
-      <c r="HH59" s="3"/>
-      <c r="HI59" s="3"/>
-      <c r="HJ59" s="3"/>
-      <c r="HK59" s="3"/>
-      <c r="HL59" s="3"/>
-      <c r="HM59" s="3"/>
-      <c r="HN59" s="3"/>
-      <c r="HO59" s="3"/>
-      <c r="HP59" s="3"/>
-      <c r="HQ59" s="3"/>
-      <c r="HR59" s="3"/>
-      <c r="HS59" s="3"/>
-      <c r="HT59" s="3"/>
-      <c r="HU59" s="3"/>
-      <c r="HV59" s="3"/>
-      <c r="HW59" s="3"/>
-      <c r="HX59" s="3"/>
-      <c r="HY59" s="3"/>
-      <c r="HZ59" s="3"/>
-      <c r="IA59" s="3"/>
-      <c r="IB59" s="3"/>
-      <c r="IC59" s="3"/>
-      <c r="ID59" s="3"/>
-      <c r="IE59" s="3"/>
-      <c r="IF59" s="3"/>
-      <c r="IG59" s="3"/>
-      <c r="IH59" s="3"/>
-      <c r="II59" s="3"/>
-      <c r="IJ59" s="3"/>
-      <c r="IK59" s="3"/>
-      <c r="IL59" s="3"/>
-      <c r="IM59" s="3"/>
-      <c r="IN59" s="3"/>
-      <c r="IO59" s="3"/>
-      <c r="IP59" s="3"/>
-      <c r="IQ59" s="3"/>
-      <c r="IR59" s="3"/>
-      <c r="IS59" s="3"/>
-      <c r="IT59" s="3"/>
-      <c r="IU59" s="3"/>
-      <c r="IV59" s="3"/>
-      <c r="IW59" s="3"/>
-    </row>
-    <row r="60" spans="10:257">
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
-      <c r="AL60" s="3"/>
-      <c r="AM60" s="3"/>
-      <c r="AN60" s="3"/>
-      <c r="AO60" s="3"/>
-      <c r="AP60" s="3"/>
-      <c r="AQ60" s="3"/>
-      <c r="AR60" s="3"/>
-      <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
-      <c r="AU60" s="3"/>
-      <c r="AV60" s="3"/>
-      <c r="AW60" s="3"/>
-      <c r="AX60" s="3"/>
-      <c r="AY60" s="3"/>
-      <c r="AZ60" s="3"/>
-      <c r="BA60" s="3"/>
-      <c r="BB60" s="3"/>
-      <c r="BC60" s="3"/>
-      <c r="BD60" s="3"/>
-      <c r="BE60" s="3"/>
-      <c r="BF60" s="3"/>
-      <c r="BG60" s="3"/>
-      <c r="BH60" s="3"/>
-      <c r="BI60" s="3"/>
-      <c r="BJ60" s="3"/>
-      <c r="BK60" s="3"/>
-      <c r="BL60" s="3"/>
-      <c r="BM60" s="3"/>
-      <c r="BN60" s="3"/>
-      <c r="BO60" s="3"/>
-      <c r="BP60" s="3"/>
-      <c r="BQ60" s="3"/>
-      <c r="BR60" s="3"/>
-      <c r="BS60" s="3"/>
-      <c r="BT60" s="3"/>
-      <c r="BU60" s="3"/>
-      <c r="BV60" s="3"/>
-      <c r="BW60" s="3"/>
-      <c r="BX60" s="3"/>
-      <c r="BY60" s="3"/>
-      <c r="BZ60" s="3"/>
-      <c r="CA60" s="3"/>
-      <c r="CB60" s="3"/>
-      <c r="CC60" s="3"/>
-      <c r="CD60" s="3"/>
-      <c r="CE60" s="3"/>
-      <c r="CF60" s="3"/>
-      <c r="CG60" s="3"/>
-      <c r="CH60" s="3"/>
-      <c r="CI60" s="3"/>
-      <c r="CJ60" s="3"/>
-      <c r="CK60" s="3"/>
-      <c r="CL60" s="3"/>
-      <c r="CM60" s="3"/>
-      <c r="CN60" s="3"/>
-      <c r="CO60" s="3"/>
-      <c r="CP60" s="3"/>
-      <c r="CQ60" s="3"/>
-      <c r="CR60" s="3"/>
-      <c r="CS60" s="3"/>
-      <c r="CT60" s="3"/>
-      <c r="CU60" s="3"/>
-      <c r="CV60" s="3"/>
-      <c r="CW60" s="3"/>
-      <c r="CX60" s="3"/>
-      <c r="CY60" s="3"/>
-      <c r="CZ60" s="3"/>
-      <c r="DA60" s="3"/>
-      <c r="DB60" s="3"/>
-      <c r="DC60" s="3"/>
-      <c r="DD60" s="3"/>
-      <c r="DE60" s="3"/>
-      <c r="DF60" s="3"/>
-      <c r="DG60" s="3"/>
-      <c r="DH60" s="3"/>
-      <c r="DI60" s="3"/>
-      <c r="DJ60" s="3"/>
-      <c r="DK60" s="3"/>
-      <c r="DL60" s="3"/>
-      <c r="DM60" s="3"/>
-      <c r="DN60" s="3"/>
-      <c r="DO60" s="3"/>
-      <c r="DP60" s="3"/>
-      <c r="DQ60" s="3"/>
-      <c r="DR60" s="3"/>
-      <c r="DS60" s="3"/>
-      <c r="DT60" s="3"/>
-      <c r="DU60" s="3"/>
-      <c r="DV60" s="3"/>
-      <c r="DW60" s="3"/>
-      <c r="DX60" s="3"/>
-      <c r="DY60" s="3"/>
-      <c r="DZ60" s="3"/>
-      <c r="EA60" s="3"/>
-      <c r="EB60" s="3"/>
-      <c r="EC60" s="3"/>
-      <c r="ED60" s="3"/>
-      <c r="EE60" s="3"/>
-      <c r="EF60" s="3"/>
-      <c r="EG60" s="3"/>
-      <c r="EH60" s="3"/>
-      <c r="EI60" s="3"/>
-      <c r="EJ60" s="3"/>
-      <c r="EK60" s="3"/>
-      <c r="EL60" s="3"/>
-      <c r="EM60" s="3"/>
-      <c r="EN60" s="3"/>
-      <c r="EO60" s="3"/>
-      <c r="EP60" s="3"/>
-      <c r="EQ60" s="3"/>
-      <c r="ER60" s="3"/>
-      <c r="ES60" s="3"/>
-      <c r="ET60" s="3"/>
-      <c r="EU60" s="3"/>
-      <c r="EV60" s="3"/>
-      <c r="EW60" s="3"/>
-      <c r="EX60" s="3"/>
-      <c r="EY60" s="3"/>
-      <c r="EZ60" s="3"/>
-      <c r="FA60" s="3"/>
-      <c r="FB60" s="3"/>
-      <c r="FC60" s="3"/>
-      <c r="FD60" s="3"/>
-      <c r="FE60" s="3"/>
-      <c r="FF60" s="3"/>
-      <c r="FG60" s="3"/>
-      <c r="FH60" s="3"/>
-      <c r="FI60" s="3"/>
-      <c r="FJ60" s="3"/>
-      <c r="FK60" s="3"/>
-      <c r="FL60" s="3"/>
-      <c r="FM60" s="3"/>
-      <c r="FN60" s="3"/>
-      <c r="FO60" s="3"/>
-      <c r="FP60" s="3"/>
-      <c r="FQ60" s="3"/>
-      <c r="FR60" s="3"/>
-      <c r="FS60" s="3"/>
-      <c r="FT60" s="3"/>
-      <c r="FU60" s="3"/>
-      <c r="FV60" s="3"/>
-      <c r="FW60" s="3"/>
-      <c r="FX60" s="3"/>
-      <c r="FY60" s="3"/>
-      <c r="FZ60" s="3"/>
-      <c r="GA60" s="3"/>
-      <c r="GB60" s="3"/>
-      <c r="GC60" s="3"/>
-      <c r="GD60" s="3"/>
-      <c r="GE60" s="3"/>
-      <c r="GF60" s="3"/>
-      <c r="GG60" s="3"/>
-      <c r="GH60" s="3"/>
-      <c r="GI60" s="3"/>
-      <c r="GJ60" s="3"/>
-      <c r="GK60" s="3"/>
-      <c r="GL60" s="3"/>
-      <c r="GM60" s="3"/>
-      <c r="GN60" s="3"/>
-      <c r="GO60" s="3"/>
-      <c r="GP60" s="3"/>
-      <c r="GQ60" s="3"/>
-      <c r="GR60" s="3"/>
-      <c r="GS60" s="3"/>
-      <c r="GT60" s="3"/>
-      <c r="GU60" s="3"/>
-      <c r="GV60" s="3"/>
-      <c r="GW60" s="3"/>
-      <c r="GX60" s="3"/>
-      <c r="GY60" s="3"/>
-      <c r="GZ60" s="3"/>
-      <c r="HA60" s="3"/>
-      <c r="HB60" s="3"/>
-      <c r="HC60" s="3"/>
-      <c r="HD60" s="3"/>
-      <c r="HE60" s="3"/>
-      <c r="HF60" s="3"/>
-      <c r="HG60" s="3"/>
-      <c r="HH60" s="3"/>
-      <c r="HI60" s="3"/>
-      <c r="HJ60" s="3"/>
-      <c r="HK60" s="3"/>
-      <c r="HL60" s="3"/>
-      <c r="HM60" s="3"/>
-      <c r="HN60" s="3"/>
-      <c r="HO60" s="3"/>
-      <c r="HP60" s="3"/>
-      <c r="HQ60" s="3"/>
-      <c r="HR60" s="3"/>
-      <c r="HS60" s="3"/>
-      <c r="HT60" s="3"/>
-      <c r="HU60" s="3"/>
-      <c r="HV60" s="3"/>
-      <c r="HW60" s="3"/>
-      <c r="HX60" s="3"/>
-      <c r="HY60" s="3"/>
-      <c r="HZ60" s="3"/>
-      <c r="IA60" s="3"/>
-      <c r="IB60" s="3"/>
-      <c r="IC60" s="3"/>
-      <c r="ID60" s="3"/>
-      <c r="IE60" s="3"/>
-      <c r="IF60" s="3"/>
-      <c r="IG60" s="3"/>
-      <c r="IH60" s="3"/>
-      <c r="II60" s="3"/>
-      <c r="IJ60" s="3"/>
-      <c r="IK60" s="3"/>
-      <c r="IL60" s="3"/>
-      <c r="IM60" s="3"/>
-      <c r="IN60" s="3"/>
-      <c r="IO60" s="3"/>
-      <c r="IP60" s="3"/>
-      <c r="IQ60" s="3"/>
-      <c r="IR60" s="3"/>
-      <c r="IS60" s="3"/>
-      <c r="IT60" s="3"/>
-      <c r="IU60" s="3"/>
-      <c r="IV60" s="3"/>
-      <c r="IW60" s="3"/>
-    </row>
-    <row r="61" spans="10:257">
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="3"/>
-      <c r="AI61" s="3"/>
-      <c r="AJ61" s="3"/>
-      <c r="AK61" s="3"/>
-      <c r="AL61" s="3"/>
-      <c r="AM61" s="3"/>
-      <c r="AN61" s="3"/>
-      <c r="AO61" s="3"/>
-      <c r="AP61" s="3"/>
-      <c r="AQ61" s="3"/>
-      <c r="AR61" s="3"/>
-      <c r="AS61" s="3"/>
-      <c r="AT61" s="3"/>
-      <c r="AU61" s="3"/>
-      <c r="AV61" s="3"/>
-      <c r="AW61" s="3"/>
-      <c r="AX61" s="3"/>
-      <c r="AY61" s="3"/>
-      <c r="AZ61" s="3"/>
-      <c r="BA61" s="3"/>
-      <c r="BB61" s="3"/>
-      <c r="BC61" s="3"/>
-      <c r="BD61" s="3"/>
-      <c r="BE61" s="3"/>
-      <c r="BF61" s="3"/>
-      <c r="BG61" s="3"/>
-      <c r="BH61" s="3"/>
-      <c r="BI61" s="3"/>
-      <c r="BJ61" s="3"/>
-      <c r="BK61" s="3"/>
-      <c r="BL61" s="3"/>
-      <c r="BM61" s="3"/>
-      <c r="BN61" s="3"/>
-      <c r="BO61" s="3"/>
-      <c r="BP61" s="3"/>
-      <c r="BQ61" s="3"/>
-      <c r="BR61" s="3"/>
-      <c r="BS61" s="3"/>
-      <c r="BT61" s="3"/>
-      <c r="BU61" s="3"/>
-      <c r="BV61" s="3"/>
-      <c r="BW61" s="3"/>
-      <c r="BX61" s="3"/>
-      <c r="BY61" s="3"/>
-      <c r="BZ61" s="3"/>
-      <c r="CA61" s="3"/>
-      <c r="CB61" s="3"/>
-      <c r="CC61" s="3"/>
-      <c r="CD61" s="3"/>
-      <c r="CE61" s="3"/>
-      <c r="CF61" s="3"/>
-      <c r="CG61" s="3"/>
-      <c r="CH61" s="3"/>
-      <c r="CI61" s="3"/>
-      <c r="CJ61" s="3"/>
-      <c r="CK61" s="3"/>
-      <c r="CL61" s="3"/>
-      <c r="CM61" s="3"/>
-      <c r="CN61" s="3"/>
-      <c r="CO61" s="3"/>
-      <c r="CP61" s="3"/>
-      <c r="CQ61" s="3"/>
-      <c r="CR61" s="3"/>
-      <c r="CS61" s="3"/>
-      <c r="CT61" s="3"/>
-      <c r="CU61" s="3"/>
-      <c r="CV61" s="3"/>
-      <c r="CW61" s="3"/>
-      <c r="CX61" s="3"/>
-      <c r="CY61" s="3"/>
-      <c r="CZ61" s="3"/>
-      <c r="DA61" s="3"/>
-      <c r="DB61" s="3"/>
-      <c r="DC61" s="3"/>
-      <c r="DD61" s="3"/>
-      <c r="DE61" s="3"/>
-      <c r="DF61" s="3"/>
-      <c r="DG61" s="3"/>
-      <c r="DH61" s="3"/>
-      <c r="DI61" s="3"/>
-      <c r="DJ61" s="3"/>
-      <c r="DK61" s="3"/>
-      <c r="DL61" s="3"/>
-      <c r="DM61" s="3"/>
-      <c r="DN61" s="3"/>
-      <c r="DO61" s="3"/>
-      <c r="DP61" s="3"/>
-      <c r="DQ61" s="3"/>
-      <c r="DR61" s="3"/>
-      <c r="DS61" s="3"/>
-      <c r="DT61" s="3"/>
-      <c r="DU61" s="3"/>
-      <c r="DV61" s="3"/>
-      <c r="DW61" s="3"/>
-      <c r="DX61" s="3"/>
-      <c r="DY61" s="3"/>
-      <c r="DZ61" s="3"/>
-      <c r="EA61" s="3"/>
-      <c r="EB61" s="3"/>
-      <c r="EC61" s="3"/>
-      <c r="ED61" s="3"/>
-      <c r="EE61" s="3"/>
-      <c r="EF61" s="3"/>
-      <c r="EG61" s="3"/>
-      <c r="EH61" s="3"/>
-      <c r="EI61" s="3"/>
-      <c r="EJ61" s="3"/>
-      <c r="EK61" s="3"/>
-      <c r="EL61" s="3"/>
-      <c r="EM61" s="3"/>
-      <c r="EN61" s="3"/>
-      <c r="EO61" s="3"/>
-      <c r="EP61" s="3"/>
-      <c r="EQ61" s="3"/>
-      <c r="ER61" s="3"/>
-      <c r="ES61" s="3"/>
-      <c r="ET61" s="3"/>
-      <c r="EU61" s="3"/>
-      <c r="EV61" s="3"/>
-      <c r="EW61" s="3"/>
-      <c r="EX61" s="3"/>
-      <c r="EY61" s="3"/>
-      <c r="EZ61" s="3"/>
-      <c r="FA61" s="3"/>
-      <c r="FB61" s="3"/>
-      <c r="FC61" s="3"/>
-      <c r="FD61" s="3"/>
-      <c r="FE61" s="3"/>
-      <c r="FF61" s="3"/>
-      <c r="FG61" s="3"/>
-      <c r="FH61" s="3"/>
-      <c r="FI61" s="3"/>
-      <c r="FJ61" s="3"/>
-      <c r="FK61" s="3"/>
-      <c r="FL61" s="3"/>
-      <c r="FM61" s="3"/>
-      <c r="FN61" s="3"/>
-      <c r="FO61" s="3"/>
-      <c r="FP61" s="3"/>
-      <c r="FQ61" s="3"/>
-      <c r="FR61" s="3"/>
-      <c r="FS61" s="3"/>
-      <c r="FT61" s="3"/>
-      <c r="FU61" s="3"/>
-      <c r="FV61" s="3"/>
-      <c r="FW61" s="3"/>
-      <c r="FX61" s="3"/>
-      <c r="FY61" s="3"/>
-      <c r="FZ61" s="3"/>
-      <c r="GA61" s="3"/>
-      <c r="GB61" s="3"/>
-      <c r="GC61" s="3"/>
-      <c r="GD61" s="3"/>
-      <c r="GE61" s="3"/>
-      <c r="GF61" s="3"/>
-      <c r="GG61" s="3"/>
-      <c r="GH61" s="3"/>
-      <c r="GI61" s="3"/>
-      <c r="GJ61" s="3"/>
-      <c r="GK61" s="3"/>
-      <c r="GL61" s="3"/>
-      <c r="GM61" s="3"/>
-      <c r="GN61" s="3"/>
-      <c r="GO61" s="3"/>
-      <c r="GP61" s="3"/>
-      <c r="GQ61" s="3"/>
-      <c r="GR61" s="3"/>
-      <c r="GS61" s="3"/>
-      <c r="GT61" s="3"/>
-      <c r="GU61" s="3"/>
-      <c r="GV61" s="3"/>
-      <c r="GW61" s="3"/>
-      <c r="GX61" s="3"/>
-      <c r="GY61" s="3"/>
-      <c r="GZ61" s="3"/>
-      <c r="HA61" s="3"/>
-      <c r="HB61" s="3"/>
-      <c r="HC61" s="3"/>
-      <c r="HD61" s="3"/>
-      <c r="HE61" s="3"/>
-      <c r="HF61" s="3"/>
-      <c r="HG61" s="3"/>
-      <c r="HH61" s="3"/>
-      <c r="HI61" s="3"/>
-      <c r="HJ61" s="3"/>
-      <c r="HK61" s="3"/>
-      <c r="HL61" s="3"/>
-      <c r="HM61" s="3"/>
-      <c r="HN61" s="3"/>
-      <c r="HO61" s="3"/>
-      <c r="HP61" s="3"/>
-      <c r="HQ61" s="3"/>
-      <c r="HR61" s="3"/>
-      <c r="HS61" s="3"/>
-      <c r="HT61" s="3"/>
-      <c r="HU61" s="3"/>
-      <c r="HV61" s="3"/>
-      <c r="HW61" s="3"/>
-      <c r="HX61" s="3"/>
-      <c r="HY61" s="3"/>
-      <c r="HZ61" s="3"/>
-      <c r="IA61" s="3"/>
-      <c r="IB61" s="3"/>
-      <c r="IC61" s="3"/>
-      <c r="ID61" s="3"/>
-      <c r="IE61" s="3"/>
-      <c r="IF61" s="3"/>
-      <c r="IG61" s="3"/>
-      <c r="IH61" s="3"/>
-      <c r="II61" s="3"/>
-      <c r="IJ61" s="3"/>
-      <c r="IK61" s="3"/>
-      <c r="IL61" s="3"/>
-      <c r="IM61" s="3"/>
-      <c r="IN61" s="3"/>
-      <c r="IO61" s="3"/>
-      <c r="IP61" s="3"/>
-      <c r="IQ61" s="3"/>
-      <c r="IR61" s="3"/>
-      <c r="IS61" s="3"/>
-      <c r="IT61" s="3"/>
-      <c r="IU61" s="3"/>
-      <c r="IV61" s="3"/>
-      <c r="IW61" s="3"/>
-    </row>
-    <row r="62" spans="10:257">
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="3"/>
-      <c r="AK62" s="3"/>
-      <c r="AL62" s="3"/>
-      <c r="AM62" s="3"/>
-      <c r="AN62" s="3"/>
-      <c r="AO62" s="3"/>
-      <c r="AP62" s="3"/>
-      <c r="AQ62" s="3"/>
-      <c r="AR62" s="3"/>
-      <c r="AS62" s="3"/>
-      <c r="AT62" s="3"/>
-      <c r="AU62" s="3"/>
-      <c r="AV62" s="3"/>
-      <c r="AW62" s="3"/>
-      <c r="AX62" s="3"/>
-      <c r="AY62" s="3"/>
-      <c r="AZ62" s="3"/>
-      <c r="BA62" s="3"/>
-      <c r="BB62" s="3"/>
-      <c r="BC62" s="3"/>
-      <c r="BD62" s="3"/>
-      <c r="BE62" s="3"/>
-      <c r="BF62" s="3"/>
-      <c r="BG62" s="3"/>
-      <c r="BH62" s="3"/>
-      <c r="BI62" s="3"/>
-      <c r="BJ62" s="3"/>
-      <c r="BK62" s="3"/>
-      <c r="BL62" s="3"/>
-      <c r="BM62" s="3"/>
-      <c r="BN62" s="3"/>
-      <c r="BO62" s="3"/>
-      <c r="BP62" s="3"/>
-      <c r="BQ62" s="3"/>
-      <c r="BR62" s="3"/>
-      <c r="BS62" s="3"/>
-      <c r="BT62" s="3"/>
-      <c r="BU62" s="3"/>
-      <c r="BV62" s="3"/>
-      <c r="BW62" s="3"/>
-      <c r="BX62" s="3"/>
-      <c r="BY62" s="3"/>
-      <c r="BZ62" s="3"/>
-      <c r="CA62" s="3"/>
-      <c r="CB62" s="3"/>
-      <c r="CC62" s="3"/>
-      <c r="CD62" s="3"/>
-      <c r="CE62" s="3"/>
-      <c r="CF62" s="3"/>
-      <c r="CG62" s="3"/>
-      <c r="CH62" s="3"/>
-      <c r="CI62" s="3"/>
-      <c r="CJ62" s="3"/>
-      <c r="CK62" s="3"/>
-      <c r="CL62" s="3"/>
-      <c r="CM62" s="3"/>
-      <c r="CN62" s="3"/>
-      <c r="CO62" s="3"/>
-      <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
-      <c r="CR62" s="3"/>
-      <c r="CS62" s="3"/>
-      <c r="CT62" s="3"/>
-      <c r="CU62" s="3"/>
-      <c r="CV62" s="3"/>
-      <c r="CW62" s="3"/>
-      <c r="CX62" s="3"/>
-      <c r="CY62" s="3"/>
-      <c r="CZ62" s="3"/>
-      <c r="DA62" s="3"/>
-      <c r="DB62" s="3"/>
-      <c r="DC62" s="3"/>
-      <c r="DD62" s="3"/>
-      <c r="DE62" s="3"/>
-      <c r="DF62" s="3"/>
-      <c r="DG62" s="3"/>
-      <c r="DH62" s="3"/>
-      <c r="DI62" s="3"/>
-      <c r="DJ62" s="3"/>
-      <c r="DK62" s="3"/>
-      <c r="DL62" s="3"/>
-      <c r="DM62" s="3"/>
-      <c r="DN62" s="3"/>
-      <c r="DO62" s="3"/>
-      <c r="DP62" s="3"/>
-      <c r="DQ62" s="3"/>
-      <c r="DR62" s="3"/>
-      <c r="DS62" s="3"/>
-      <c r="DT62" s="3"/>
-      <c r="DU62" s="3"/>
-      <c r="DV62" s="3"/>
-      <c r="DW62" s="3"/>
-      <c r="DX62" s="3"/>
-      <c r="DY62" s="3"/>
-      <c r="DZ62" s="3"/>
-      <c r="EA62" s="3"/>
-      <c r="EB62" s="3"/>
-      <c r="EC62" s="3"/>
-      <c r="ED62" s="3"/>
-      <c r="EE62" s="3"/>
-      <c r="EF62" s="3"/>
-      <c r="EG62" s="3"/>
-      <c r="EH62" s="3"/>
-      <c r="EI62" s="3"/>
-      <c r="EJ62" s="3"/>
-      <c r="EK62" s="3"/>
-      <c r="EL62" s="3"/>
-      <c r="EM62" s="3"/>
-      <c r="EN62" s="3"/>
-      <c r="EO62" s="3"/>
-      <c r="EP62" s="3"/>
-      <c r="EQ62" s="3"/>
-      <c r="ER62" s="3"/>
-      <c r="ES62" s="3"/>
-      <c r="ET62" s="3"/>
-      <c r="EU62" s="3"/>
-      <c r="EV62" s="3"/>
-      <c r="EW62" s="3"/>
-      <c r="EX62" s="3"/>
-      <c r="EY62" s="3"/>
-      <c r="EZ62" s="3"/>
-      <c r="FA62" s="3"/>
-      <c r="FB62" s="3"/>
-      <c r="FC62" s="3"/>
-      <c r="FD62" s="3"/>
-      <c r="FE62" s="3"/>
-      <c r="FF62" s="3"/>
-      <c r="FG62" s="3"/>
-      <c r="FH62" s="3"/>
-      <c r="FI62" s="3"/>
-      <c r="FJ62" s="3"/>
-      <c r="FK62" s="3"/>
-      <c r="FL62" s="3"/>
-      <c r="FM62" s="3"/>
-      <c r="FN62" s="3"/>
-      <c r="FO62" s="3"/>
-      <c r="FP62" s="3"/>
-      <c r="FQ62" s="3"/>
-      <c r="FR62" s="3"/>
-      <c r="FS62" s="3"/>
-      <c r="FT62" s="3"/>
-      <c r="FU62" s="3"/>
-      <c r="FV62" s="3"/>
-      <c r="FW62" s="3"/>
-      <c r="FX62" s="3"/>
-      <c r="FY62" s="3"/>
-      <c r="FZ62" s="3"/>
-      <c r="GA62" s="3"/>
-      <c r="GB62" s="3"/>
-      <c r="GC62" s="3"/>
-      <c r="GD62" s="3"/>
-      <c r="GE62" s="3"/>
-      <c r="GF62" s="3"/>
-      <c r="GG62" s="3"/>
-      <c r="GH62" s="3"/>
-      <c r="GI62" s="3"/>
-      <c r="GJ62" s="3"/>
-      <c r="GK62" s="3"/>
-      <c r="GL62" s="3"/>
-      <c r="GM62" s="3"/>
-      <c r="GN62" s="3"/>
-      <c r="GO62" s="3"/>
-      <c r="GP62" s="3"/>
-      <c r="GQ62" s="3"/>
-      <c r="GR62" s="3"/>
-      <c r="GS62" s="3"/>
-      <c r="GT62" s="3"/>
-      <c r="GU62" s="3"/>
-      <c r="GV62" s="3"/>
-      <c r="GW62" s="3"/>
-      <c r="GX62" s="3"/>
-      <c r="GY62" s="3"/>
-      <c r="GZ62" s="3"/>
-      <c r="HA62" s="3"/>
-      <c r="HB62" s="3"/>
-      <c r="HC62" s="3"/>
-      <c r="HD62" s="3"/>
-      <c r="HE62" s="3"/>
-      <c r="HF62" s="3"/>
-      <c r="HG62" s="3"/>
-      <c r="HH62" s="3"/>
-      <c r="HI62" s="3"/>
-      <c r="HJ62" s="3"/>
-      <c r="HK62" s="3"/>
-      <c r="HL62" s="3"/>
-      <c r="HM62" s="3"/>
-      <c r="HN62" s="3"/>
-      <c r="HO62" s="3"/>
-      <c r="HP62" s="3"/>
-      <c r="HQ62" s="3"/>
-      <c r="HR62" s="3"/>
-      <c r="HS62" s="3"/>
-      <c r="HT62" s="3"/>
-      <c r="HU62" s="3"/>
-      <c r="HV62" s="3"/>
-      <c r="HW62" s="3"/>
-      <c r="HX62" s="3"/>
-      <c r="HY62" s="3"/>
-      <c r="HZ62" s="3"/>
-      <c r="IA62" s="3"/>
-      <c r="IB62" s="3"/>
-      <c r="IC62" s="3"/>
-      <c r="ID62" s="3"/>
-      <c r="IE62" s="3"/>
-      <c r="IF62" s="3"/>
-      <c r="IG62" s="3"/>
-      <c r="IH62" s="3"/>
-      <c r="II62" s="3"/>
-      <c r="IJ62" s="3"/>
-      <c r="IK62" s="3"/>
-      <c r="IL62" s="3"/>
-      <c r="IM62" s="3"/>
-      <c r="IN62" s="3"/>
-      <c r="IO62" s="3"/>
-      <c r="IP62" s="3"/>
-      <c r="IQ62" s="3"/>
-      <c r="IR62" s="3"/>
-      <c r="IS62" s="3"/>
-      <c r="IT62" s="3"/>
-      <c r="IU62" s="3"/>
-      <c r="IV62" s="3"/>
-      <c r="IW62" s="3"/>
-    </row>
-    <row r="63" spans="10:257">
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
-      <c r="AQ63" s="3"/>
-      <c r="AR63" s="3"/>
-      <c r="AS63" s="3"/>
-      <c r="AT63" s="3"/>
-      <c r="AU63" s="3"/>
-      <c r="AV63" s="3"/>
-      <c r="AW63" s="3"/>
-      <c r="AX63" s="3"/>
-      <c r="AY63" s="3"/>
-      <c r="AZ63" s="3"/>
-      <c r="BA63" s="3"/>
-      <c r="BB63" s="3"/>
-      <c r="BC63" s="3"/>
-      <c r="BD63" s="3"/>
-      <c r="BE63" s="3"/>
-      <c r="BF63" s="3"/>
-      <c r="BG63" s="3"/>
-      <c r="BH63" s="3"/>
-      <c r="BI63" s="3"/>
-      <c r="BJ63" s="3"/>
-      <c r="BK63" s="3"/>
-      <c r="BL63" s="3"/>
-      <c r="BM63" s="3"/>
-      <c r="BN63" s="3"/>
-      <c r="BO63" s="3"/>
-      <c r="BP63" s="3"/>
-      <c r="BQ63" s="3"/>
-      <c r="BR63" s="3"/>
-      <c r="BS63" s="3"/>
-      <c r="BT63" s="3"/>
-      <c r="BU63" s="3"/>
-      <c r="BV63" s="3"/>
-      <c r="BW63" s="3"/>
-      <c r="BX63" s="3"/>
-      <c r="BY63" s="3"/>
-      <c r="BZ63" s="3"/>
-      <c r="CA63" s="3"/>
-      <c r="CB63" s="3"/>
-      <c r="CC63" s="3"/>
-      <c r="CD63" s="3"/>
-      <c r="CE63" s="3"/>
-      <c r="CF63" s="3"/>
-      <c r="CG63" s="3"/>
-      <c r="CH63" s="3"/>
-      <c r="CI63" s="3"/>
-      <c r="CJ63" s="3"/>
-      <c r="CK63" s="3"/>
-      <c r="CL63" s="3"/>
-      <c r="CM63" s="3"/>
-      <c r="CN63" s="3"/>
-      <c r="CO63" s="3"/>
-      <c r="CP63" s="3"/>
-      <c r="CQ63" s="3"/>
-      <c r="CR63" s="3"/>
-      <c r="CS63" s="3"/>
-      <c r="CT63" s="3"/>
-      <c r="CU63" s="3"/>
-      <c r="CV63" s="3"/>
-      <c r="CW63" s="3"/>
-      <c r="CX63" s="3"/>
-      <c r="CY63" s="3"/>
-      <c r="CZ63" s="3"/>
-      <c r="DA63" s="3"/>
-      <c r="DB63" s="3"/>
-      <c r="DC63" s="3"/>
-      <c r="DD63" s="3"/>
-      <c r="DE63" s="3"/>
-      <c r="DF63" s="3"/>
-      <c r="DG63" s="3"/>
-      <c r="DH63" s="3"/>
-      <c r="DI63" s="3"/>
-      <c r="DJ63" s="3"/>
-      <c r="DK63" s="3"/>
-      <c r="DL63" s="3"/>
-      <c r="DM63" s="3"/>
-      <c r="DN63" s="3"/>
-      <c r="DO63" s="3"/>
-      <c r="DP63" s="3"/>
-      <c r="DQ63" s="3"/>
-      <c r="DR63" s="3"/>
-      <c r="DS63" s="3"/>
-      <c r="DT63" s="3"/>
-      <c r="DU63" s="3"/>
-      <c r="DV63" s="3"/>
-      <c r="DW63" s="3"/>
-      <c r="DX63" s="3"/>
-      <c r="DY63" s="3"/>
-      <c r="DZ63" s="3"/>
-      <c r="EA63" s="3"/>
-      <c r="EB63" s="3"/>
-      <c r="EC63" s="3"/>
-      <c r="ED63" s="3"/>
-      <c r="EE63" s="3"/>
-      <c r="EF63" s="3"/>
-      <c r="EG63" s="3"/>
-      <c r="EH63" s="3"/>
-      <c r="EI63" s="3"/>
-      <c r="EJ63" s="3"/>
-      <c r="EK63" s="3"/>
-      <c r="EL63" s="3"/>
-      <c r="EM63" s="3"/>
-      <c r="EN63" s="3"/>
-      <c r="EO63" s="3"/>
-      <c r="EP63" s="3"/>
-      <c r="EQ63" s="3"/>
-      <c r="ER63" s="3"/>
-      <c r="ES63" s="3"/>
-      <c r="ET63" s="3"/>
-      <c r="EU63" s="3"/>
-      <c r="EV63" s="3"/>
-      <c r="EW63" s="3"/>
-      <c r="EX63" s="3"/>
-      <c r="EY63" s="3"/>
-      <c r="EZ63" s="3"/>
-      <c r="FA63" s="3"/>
-      <c r="FB63" s="3"/>
-      <c r="FC63" s="3"/>
-      <c r="FD63" s="3"/>
-      <c r="FE63" s="3"/>
-      <c r="FF63" s="3"/>
-      <c r="FG63" s="3"/>
-      <c r="FH63" s="3"/>
-      <c r="FI63" s="3"/>
-      <c r="FJ63" s="3"/>
-      <c r="FK63" s="3"/>
-      <c r="FL63" s="3"/>
-      <c r="FM63" s="3"/>
-      <c r="FN63" s="3"/>
-      <c r="FO63" s="3"/>
-      <c r="FP63" s="3"/>
-      <c r="FQ63" s="3"/>
-      <c r="FR63" s="3"/>
-      <c r="FS63" s="3"/>
-      <c r="FT63" s="3"/>
-      <c r="FU63" s="3"/>
-      <c r="FV63" s="3"/>
-      <c r="FW63" s="3"/>
-      <c r="FX63" s="3"/>
-      <c r="FY63" s="3"/>
-      <c r="FZ63" s="3"/>
-      <c r="GA63" s="3"/>
-      <c r="GB63" s="3"/>
-      <c r="GC63" s="3"/>
-      <c r="GD63" s="3"/>
-      <c r="GE63" s="3"/>
-      <c r="GF63" s="3"/>
-      <c r="GG63" s="3"/>
-      <c r="GH63" s="3"/>
-      <c r="GI63" s="3"/>
-      <c r="GJ63" s="3"/>
-      <c r="GK63" s="3"/>
-      <c r="GL63" s="3"/>
-      <c r="GM63" s="3"/>
-      <c r="GN63" s="3"/>
-      <c r="GO63" s="3"/>
-      <c r="GP63" s="3"/>
-      <c r="GQ63" s="3"/>
-      <c r="GR63" s="3"/>
-      <c r="GS63" s="3"/>
-      <c r="GT63" s="3"/>
-      <c r="GU63" s="3"/>
-      <c r="GV63" s="3"/>
-      <c r="GW63" s="3"/>
-      <c r="GX63" s="3"/>
-      <c r="GY63" s="3"/>
-      <c r="GZ63" s="3"/>
-      <c r="HA63" s="3"/>
-      <c r="HB63" s="3"/>
-      <c r="HC63" s="3"/>
-      <c r="HD63" s="3"/>
-      <c r="HE63" s="3"/>
-      <c r="HF63" s="3"/>
-      <c r="HG63" s="3"/>
-      <c r="HH63" s="3"/>
-      <c r="HI63" s="3"/>
-      <c r="HJ63" s="3"/>
-      <c r="HK63" s="3"/>
-      <c r="HL63" s="3"/>
-      <c r="HM63" s="3"/>
-      <c r="HN63" s="3"/>
-      <c r="HO63" s="3"/>
-      <c r="HP63" s="3"/>
-      <c r="HQ63" s="3"/>
-      <c r="HR63" s="3"/>
-      <c r="HS63" s="3"/>
-      <c r="HT63" s="3"/>
-      <c r="HU63" s="3"/>
-      <c r="HV63" s="3"/>
-      <c r="HW63" s="3"/>
-      <c r="HX63" s="3"/>
-      <c r="HY63" s="3"/>
-      <c r="HZ63" s="3"/>
-      <c r="IA63" s="3"/>
-      <c r="IB63" s="3"/>
-      <c r="IC63" s="3"/>
-      <c r="ID63" s="3"/>
-      <c r="IE63" s="3"/>
-      <c r="IF63" s="3"/>
-      <c r="IG63" s="3"/>
-      <c r="IH63" s="3"/>
-      <c r="II63" s="3"/>
-      <c r="IJ63" s="3"/>
-      <c r="IK63" s="3"/>
-      <c r="IL63" s="3"/>
-      <c r="IM63" s="3"/>
-      <c r="IN63" s="3"/>
-      <c r="IO63" s="3"/>
-      <c r="IP63" s="3"/>
-      <c r="IQ63" s="3"/>
-      <c r="IR63" s="3"/>
-      <c r="IS63" s="3"/>
-      <c r="IT63" s="3"/>
-      <c r="IU63" s="3"/>
-      <c r="IV63" s="3"/>
-      <c r="IW63" s="3"/>
-    </row>
-    <row r="64" spans="10:257">
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
-      <c r="AQ64" s="3"/>
-      <c r="AR64" s="3"/>
-      <c r="AS64" s="3"/>
-      <c r="AT64" s="3"/>
-      <c r="AU64" s="3"/>
-      <c r="AV64" s="3"/>
-      <c r="AW64" s="3"/>
-      <c r="AX64" s="3"/>
-      <c r="AY64" s="3"/>
-      <c r="AZ64" s="3"/>
-      <c r="BA64" s="3"/>
-      <c r="BB64" s="3"/>
-      <c r="BC64" s="3"/>
-      <c r="BD64" s="3"/>
-      <c r="BE64" s="3"/>
-      <c r="BF64" s="3"/>
-      <c r="BG64" s="3"/>
-      <c r="BH64" s="3"/>
-      <c r="BI64" s="3"/>
-      <c r="BJ64" s="3"/>
-      <c r="BK64" s="3"/>
-      <c r="BL64" s="3"/>
-      <c r="BM64" s="3"/>
-      <c r="BN64" s="3"/>
-      <c r="BO64" s="3"/>
-      <c r="BP64" s="3"/>
-      <c r="BQ64" s="3"/>
-      <c r="BR64" s="3"/>
-      <c r="BS64" s="3"/>
-      <c r="BT64" s="3"/>
-      <c r="BU64" s="3"/>
-      <c r="BV64" s="3"/>
-      <c r="BW64" s="3"/>
-      <c r="BX64" s="3"/>
-      <c r="BY64" s="3"/>
-      <c r="BZ64" s="3"/>
-      <c r="CA64" s="3"/>
-      <c r="CB64" s="3"/>
-      <c r="CC64" s="3"/>
-      <c r="CD64" s="3"/>
-      <c r="CE64" s="3"/>
-      <c r="CF64" s="3"/>
-      <c r="CG64" s="3"/>
-      <c r="CH64" s="3"/>
-      <c r="CI64" s="3"/>
-      <c r="CJ64" s="3"/>
-      <c r="CK64" s="3"/>
-      <c r="CL64" s="3"/>
-      <c r="CM64" s="3"/>
-      <c r="CN64" s="3"/>
-      <c r="CO64" s="3"/>
-      <c r="CP64" s="3"/>
-      <c r="CQ64" s="3"/>
-      <c r="CR64" s="3"/>
-      <c r="CS64" s="3"/>
-      <c r="CT64" s="3"/>
-      <c r="CU64" s="3"/>
-      <c r="CV64" s="3"/>
-      <c r="CW64" s="3"/>
-      <c r="CX64" s="3"/>
-      <c r="CY64" s="3"/>
-      <c r="CZ64" s="3"/>
-      <c r="DA64" s="3"/>
-      <c r="DB64" s="3"/>
-      <c r="DC64" s="3"/>
-      <c r="DD64" s="3"/>
-      <c r="DE64" s="3"/>
-      <c r="DF64" s="3"/>
-      <c r="DG64" s="3"/>
-      <c r="DH64" s="3"/>
-      <c r="DI64" s="3"/>
-      <c r="DJ64" s="3"/>
-      <c r="DK64" s="3"/>
-      <c r="DL64" s="3"/>
-      <c r="DM64" s="3"/>
-      <c r="DN64" s="3"/>
-      <c r="DO64" s="3"/>
-      <c r="DP64" s="3"/>
-      <c r="DQ64" s="3"/>
-      <c r="DR64" s="3"/>
-      <c r="DS64" s="3"/>
-      <c r="DT64" s="3"/>
-      <c r="DU64" s="3"/>
-      <c r="DV64" s="3"/>
-      <c r="DW64" s="3"/>
-      <c r="DX64" s="3"/>
-      <c r="DY64" s="3"/>
-      <c r="DZ64" s="3"/>
-      <c r="EA64" s="3"/>
-      <c r="EB64" s="3"/>
-      <c r="EC64" s="3"/>
-      <c r="ED64" s="3"/>
-      <c r="EE64" s="3"/>
-      <c r="EF64" s="3"/>
-      <c r="EG64" s="3"/>
-      <c r="EH64" s="3"/>
-      <c r="EI64" s="3"/>
-      <c r="EJ64" s="3"/>
-      <c r="EK64" s="3"/>
-      <c r="EL64" s="3"/>
-      <c r="EM64" s="3"/>
-      <c r="EN64" s="3"/>
-      <c r="EO64" s="3"/>
-      <c r="EP64" s="3"/>
-      <c r="EQ64" s="3"/>
-      <c r="ER64" s="3"/>
-      <c r="ES64" s="3"/>
-      <c r="ET64" s="3"/>
-      <c r="EU64" s="3"/>
-      <c r="EV64" s="3"/>
-      <c r="EW64" s="3"/>
-      <c r="EX64" s="3"/>
-      <c r="EY64" s="3"/>
-      <c r="EZ64" s="3"/>
-      <c r="FA64" s="3"/>
-      <c r="FB64" s="3"/>
-      <c r="FC64" s="3"/>
-      <c r="FD64" s="3"/>
-      <c r="FE64" s="3"/>
-      <c r="FF64" s="3"/>
-      <c r="FG64" s="3"/>
-      <c r="FH64" s="3"/>
-      <c r="FI64" s="3"/>
-      <c r="FJ64" s="3"/>
-      <c r="FK64" s="3"/>
-      <c r="FL64" s="3"/>
-      <c r="FM64" s="3"/>
-      <c r="FN64" s="3"/>
-      <c r="FO64" s="3"/>
-      <c r="FP64" s="3"/>
-      <c r="FQ64" s="3"/>
-      <c r="FR64" s="3"/>
-      <c r="FS64" s="3"/>
-      <c r="FT64" s="3"/>
-      <c r="FU64" s="3"/>
-      <c r="FV64" s="3"/>
-      <c r="FW64" s="3"/>
-      <c r="FX64" s="3"/>
-      <c r="FY64" s="3"/>
-      <c r="FZ64" s="3"/>
-      <c r="GA64" s="3"/>
-      <c r="GB64" s="3"/>
-      <c r="GC64" s="3"/>
-      <c r="GD64" s="3"/>
-      <c r="GE64" s="3"/>
-      <c r="GF64" s="3"/>
-      <c r="GG64" s="3"/>
-      <c r="GH64" s="3"/>
-      <c r="GI64" s="3"/>
-      <c r="GJ64" s="3"/>
-      <c r="GK64" s="3"/>
-      <c r="GL64" s="3"/>
-      <c r="GM64" s="3"/>
-      <c r="GN64" s="3"/>
-      <c r="GO64" s="3"/>
-      <c r="GP64" s="3"/>
-      <c r="GQ64" s="3"/>
-      <c r="GR64" s="3"/>
-      <c r="GS64" s="3"/>
-      <c r="GT64" s="3"/>
-      <c r="GU64" s="3"/>
-      <c r="GV64" s="3"/>
-      <c r="GW64" s="3"/>
-      <c r="GX64" s="3"/>
-      <c r="GY64" s="3"/>
-      <c r="GZ64" s="3"/>
-      <c r="HA64" s="3"/>
-      <c r="HB64" s="3"/>
-      <c r="HC64" s="3"/>
-      <c r="HD64" s="3"/>
-      <c r="HE64" s="3"/>
-      <c r="HF64" s="3"/>
-      <c r="HG64" s="3"/>
-      <c r="HH64" s="3"/>
-      <c r="HI64" s="3"/>
-      <c r="HJ64" s="3"/>
-      <c r="HK64" s="3"/>
-      <c r="HL64" s="3"/>
-      <c r="HM64" s="3"/>
-      <c r="HN64" s="3"/>
-      <c r="HO64" s="3"/>
-      <c r="HP64" s="3"/>
-      <c r="HQ64" s="3"/>
-      <c r="HR64" s="3"/>
-      <c r="HS64" s="3"/>
-      <c r="HT64" s="3"/>
-      <c r="HU64" s="3"/>
-      <c r="HV64" s="3"/>
-      <c r="HW64" s="3"/>
-      <c r="HX64" s="3"/>
-      <c r="HY64" s="3"/>
-      <c r="HZ64" s="3"/>
-      <c r="IA64" s="3"/>
-      <c r="IB64" s="3"/>
-      <c r="IC64" s="3"/>
-      <c r="ID64" s="3"/>
-      <c r="IE64" s="3"/>
-      <c r="IF64" s="3"/>
-      <c r="IG64" s="3"/>
-      <c r="IH64" s="3"/>
-      <c r="II64" s="3"/>
-      <c r="IJ64" s="3"/>
-      <c r="IK64" s="3"/>
-      <c r="IL64" s="3"/>
-      <c r="IM64" s="3"/>
-      <c r="IN64" s="3"/>
-      <c r="IO64" s="3"/>
-      <c r="IP64" s="3"/>
-      <c r="IQ64" s="3"/>
-      <c r="IR64" s="3"/>
-      <c r="IS64" s="3"/>
-      <c r="IT64" s="3"/>
-      <c r="IU64" s="3"/>
-      <c r="IV64" s="3"/>
-      <c r="IW64" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
